--- a/Fatos e Dimensões.xlsx
+++ b/Fatos e Dimensões.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moliveira\Downloads\TCC\4. Artefatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A420910-AE89-4675-B37B-54A58A8604D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A493BC43-2972-41E0-B40F-6551DA347C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="f_d" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">f_d!$A$1:$F$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">f_d!$A$1:$F$50</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="91">
   <si>
     <t>Coluna</t>
   </si>
@@ -303,6 +303,50 @@
   </si>
   <si>
     <t>Lista de fabricantes das barras de chocolate avaliadas</t>
+  </si>
+  <si>
+    <t>vl_minimun range</t>
+  </si>
+  <si>
+    <t>vl_maximum range</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Valor mínimo do </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>range</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Valor maximo do </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>range</t>
+    </r>
+  </si>
+  <si>
+    <t>Ingredientes concatenados da barra de chocolate</t>
+  </si>
+  <si>
+    <t>Sabores marcantes concatenados da barra de chocolate</t>
   </si>
 </sst>
 </file>
@@ -380,9 +424,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,6 +443,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -688,740 +732,787 @@
     <tabColor theme="0" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27" style="5" customWidth="1"/>
-    <col min="2" max="2" width="41.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27" style="4" customWidth="1"/>
+    <col min="2" max="2" width="49.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="A40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="A41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="C50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="C51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="C52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="C53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="C55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="C56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="C57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="C58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
